--- a/dist/ruten循环上下架/_internal/店铺配置表.xlsx
+++ b/dist/ruten循环上下架/_internal/店铺配置表.xlsx
@@ -193,7 +193,7 @@
 数量限制</t>
   </si>
   <si>
-    <t>hunter55</t>
+    <t>clyde56</t>
   </si>
   <si>
     <t>6</t>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/dist/ruten循环上下架/_internal/店铺配置表.xlsx
+++ b/dist/ruten循环上下架/_internal/店铺配置表.xlsx
@@ -193,7 +193,7 @@
 数量限制</t>
   </si>
   <si>
-    <t>clyde56</t>
+    <t>udolf70</t>
   </si>
   <si>
     <t>6</t>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/dist/ruten循环上下架/_internal/店铺配置表.xlsx
+++ b/dist/ruten循环上下架/_internal/店铺配置表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>店铺</t>
   </si>
@@ -193,7 +193,10 @@
 数量限制</t>
   </si>
   <si>
-    <t>udolf70</t>
+    <t>每日最大上架数</t>
+  </si>
+  <si>
+    <t>queen8188</t>
   </si>
   <si>
     <t>6</t>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
   <si>
     <t>标题随机词</t>
@@ -1230,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1250,7 +1256,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:9">
+    <row r="1" ht="35" customHeight="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1278,34 +1284,40 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1331,57 +1343,57 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/dist/ruten循环上下架/_internal/店铺配置表.xlsx
+++ b/dist/ruten循环上下架/_internal/店铺配置表.xlsx
@@ -196,7 +196,7 @@
     <t>每日最大上架数</t>
   </si>
   <si>
-    <t>queen8188</t>
+    <t>graysonc</t>
   </si>
   <si>
     <t>6</t>
@@ -1238,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
